--- a/biology/Zoologie/Coucou_des_buissons/Coucou_des_buissons.xlsx
+++ b/biology/Zoologie/Coucou_des_buissons/Coucou_des_buissons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cacomantis variolosus
 Le Coucou des buissons (Cacomantis variolosus) est une espèce d'oiseaux de la famille des Cuculidae. 
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un oiseau gris-brun avec une tache chamois sur la poitrine. Il mesure 23 cm de long[1]. Son cri est très familier dans le bush australien.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un oiseau gris-brun avec une tache chamois sur la poitrine. Il mesure 23 cm de long. Son cri est très familier dans le bush australien.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le coucou des buissons est répandu à travers l'Insulinde, la Nouvelle-Guinée, l'archipel des Salomon et le nord et l'est de l'Australie.
 Les populations des montagnes hivernent dans les plaines chaudes.
@@ -575,7 +591,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, 12 sous-espèces ont été décrites :
 Cacomantis variolosus addendus Rothschild &amp; Hartert, 1901 ;
